--- a/test-tools/PURE_LAMBDA_RESULTS/PURE_COLD_STARTS/JAVA_PURE_COLDSTART.xlsx
+++ b/test-tools/PURE_LAMBDA_RESULTS/PURE_COLD_STARTS/JAVA_PURE_COLDSTART.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisconnor/Sites/HONOURS_PROJECT/test-tools/PURE_LAMBDA_RESULTS/PURE_COLD_STARTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A3CBE-B69B-8A4F-80E7-6339D1282AB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C60CFC-9AAF-AE46-AF0B-603BE48AE16E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="4500" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="4500" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Memory Allocation</t>
   </si>
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -584,6 +584,8 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -750,99 +752,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>6000.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6000.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6001.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6001.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6001.74</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6002.22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6002.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6002.66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6002.72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6002.88</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6002.89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6003.22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6003.33</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6003.38</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6003.41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6003.58</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6003.77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6003.91</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6004.22</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6004.3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6004.36</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6004.48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6004.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6004.83</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6004.86</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6004.99</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6005.03</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6005.1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6005.19</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6005.19</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1383,6 +1292,33 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Java Direct Invocation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Statistics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1417,7 +1353,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1425,38 +1361,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512 MB</c:v>
+                  <c:v>1024 MB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1496,34 +1411,34 @@
                 <c:formatCode>0"ms"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6004.0887804878048</c:v>
+                  <c:v>4387.0832258064511</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6004.3</c:v>
+                  <c:v>4423.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000.5</c:v>
+                  <c:v>4023.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6006.24</c:v>
+                  <c:v>4619.7299999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6345491658587761</c:v>
+                  <c:v>154.93644302072374</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6006.2280000000001</c:v>
+                  <c:v>4607.9129999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F96C-BB4F-BAC6-15B61F0910CD}"/>
+              <c16:uniqueId val="{00000001-F96C-BB4F-BAC6-15B61F0910CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1531,38 +1446,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1024 MB</c:v>
+                  <c:v>2048 MB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1598,112 +1490,6 @@
           <c:val>
             <c:numRef>
               <c:f>JAVA_PURE_COLDSTART!$J$5:$O$5</c:f>
-              <c:numCache>
-                <c:formatCode>0"ms"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4387.0832258064511</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4423.8999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4023.42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4619.7299999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>154.93644302072374</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4607.9129999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F96C-BB4F-BAC6-15B61F0910CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>JAVA_PURE_COLDSTART!$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2048 MB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>JAVA_PURE_COLDSTART!$J$3:$O$3</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>AVERAGE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MEDIAN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MIN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MAX</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>STDEV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99p</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>JAVA_PURE_COLDSTART!$J$6:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>0"ms"</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1816,6 +1602,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0&quot;ms&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1848,6 +1687,41 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1857,7 +1731,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2937,7 +2811,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2948,7 +2822,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="170" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4086,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4114,39 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
-        <v>91</v>
-      </c>
-      <c r="B2">
-        <v>6000.5</v>
-      </c>
-      <c r="C2">
-        <v>6000</v>
-      </c>
-      <c r="D2">
-        <v>512</v>
-      </c>
-      <c r="E2">
-        <v>120</v>
-      </c>
-    </row>
     <row r="3" spans="1:15">
-      <c r="A3">
-        <v>96</v>
-      </c>
-      <c r="B3">
-        <v>6000.5</v>
-      </c>
-      <c r="C3">
-        <v>6000</v>
-      </c>
-      <c r="D3">
-        <v>512</v>
-      </c>
-      <c r="E3">
-        <v>122</v>
-      </c>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4167,750 +4009,202 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4">
-        <v>101</v>
-      </c>
-      <c r="B4">
-        <v>6001.6</v>
-      </c>
-      <c r="C4">
-        <v>6000</v>
-      </c>
-      <c r="D4">
-        <v>512</v>
-      </c>
-      <c r="E4">
-        <v>122</v>
-      </c>
       <c r="I4" s="6">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="J4" s="7">
         <f t="array" ref="J4">AVERAGE(IF($D:$D=$I4,$B:$B))</f>
-        <v>6004.0887804878048</v>
+        <v>4387.0832258064511</v>
       </c>
       <c r="K4" s="7">
         <f t="array" ref="K4">MEDIAN(IF($D:$D=$I4,$B:$B))</f>
-        <v>6004.3</v>
+        <v>4423.8999999999996</v>
       </c>
       <c r="L4" s="7">
         <f t="array" ref="L4">MIN(IF($D:$D=$I4,$B:$B))</f>
-        <v>6000.5</v>
+        <v>4023.42</v>
       </c>
       <c r="M4" s="7">
         <f t="array" ref="M4">MAX(IF($D:$D=$I4,$B:$B))</f>
-        <v>6006.24</v>
+        <v>4619.7299999999996</v>
       </c>
       <c r="N4" s="7">
         <f t="array" ref="N4">STDEV(IF($D:$D=$I4,$B:$B))</f>
-        <v>1.6345491658587761</v>
+        <v>154.93644302072374</v>
       </c>
       <c r="O4" s="7">
         <f t="array" ref="O4">PERCENTILE((IF($D:$D=$I4,$B:$B)),0.99)</f>
-        <v>6006.2280000000001</v>
+        <v>4607.9129999999996</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5">
-        <v>84</v>
-      </c>
-      <c r="B5">
-        <v>6001.62</v>
-      </c>
-      <c r="C5">
-        <v>6000</v>
-      </c>
-      <c r="D5">
-        <v>512</v>
-      </c>
-      <c r="E5">
-        <v>123</v>
-      </c>
       <c r="I5" s="6">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="J5" s="7">
         <f t="array" ref="J5">AVERAGE(IF($D:$D=$I5,$B:$B))</f>
-        <v>4387.0832258064511</v>
+        <v>2160.6890322580648</v>
       </c>
       <c r="K5" s="7">
         <f t="array" ref="K5">MEDIAN(IF($D:$D=$I5,$B:$B))</f>
-        <v>4423.8999999999996</v>
+        <v>2152.04</v>
       </c>
       <c r="L5" s="7">
         <f t="array" ref="L5">MIN(IF($D:$D=$I5,$B:$B))</f>
-        <v>4023.42</v>
+        <v>1826.49</v>
       </c>
       <c r="M5" s="7">
         <f t="array" ref="M5">MAX(IF($D:$D=$I5,$B:$B))</f>
-        <v>4619.7299999999996</v>
+        <v>2516.42</v>
       </c>
       <c r="N5" s="7">
         <f t="array" ref="N5">STDEV(IF($D:$D=$I5,$B:$B))</f>
-        <v>154.93644302072374</v>
+        <v>112.35401554476039</v>
       </c>
       <c r="O5" s="7">
         <f t="array" ref="O5">PERCENTILE((IF($D:$D=$I5,$B:$B)),0.99)</f>
-        <v>4607.9129999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>92</v>
-      </c>
-      <c r="B6">
-        <v>6001.74</v>
-      </c>
-      <c r="C6">
-        <v>6000</v>
-      </c>
-      <c r="D6">
-        <v>512</v>
-      </c>
-      <c r="E6">
-        <v>122</v>
-      </c>
-      <c r="I6" s="6">
+        <v>2498.2159999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="I8" s="7">
+        <f>J4-J5</f>
+        <v>2226.3941935483863</v>
+      </c>
+      <c r="J8" s="7">
+        <f>K4-K5</f>
+        <v>2271.8599999999997</v>
+      </c>
+      <c r="K8" s="7">
+        <f>L4-L5</f>
+        <v>2196.9300000000003</v>
+      </c>
+      <c r="L8" s="7">
+        <f>M4-M5</f>
+        <v>2103.3099999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="I9">
+        <f>I8/J4</f>
+        <v>0.507488479008538</v>
+      </c>
+      <c r="J9">
+        <f>J8/K4</f>
+        <v>0.51354234951061273</v>
+      </c>
+      <c r="K9">
+        <f>K8/L4</f>
+        <v>0.5460354623678364</v>
+      </c>
+      <c r="L9">
+        <f>L8/M4</f>
+        <v>0.45528851253211761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="L10" s="7"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="I14" s="1">
+        <v>1024</v>
+      </c>
+      <c r="J14">
+        <v>6212.1303076923059</v>
+      </c>
+      <c r="K14">
+        <v>6253.6149999999998</v>
+      </c>
+      <c r="L14">
+        <v>5108.1130000000003</v>
+      </c>
+      <c r="M14">
+        <v>7965.317</v>
+      </c>
+      <c r="N14">
+        <v>369.36626599778424</v>
+      </c>
+      <c r="O14">
+        <v>7833.7094599999946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="I15" s="1">
         <v>2048</v>
       </c>
-      <c r="J6" s="7">
-        <f t="array" ref="J6">AVERAGE(IF($D:$D=$I6,$B:$B))</f>
-        <v>2160.6890322580648</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="array" ref="K6">MEDIAN(IF($D:$D=$I6,$B:$B))</f>
-        <v>2152.04</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="array" ref="L6">MIN(IF($D:$D=$I6,$B:$B))</f>
-        <v>1826.49</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="array" ref="M6">MAX(IF($D:$D=$I6,$B:$B))</f>
-        <v>2516.42</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="array" ref="N6">STDEV(IF($D:$D=$I6,$B:$B))</f>
-        <v>112.35401554476039</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="array" ref="O6">PERCENTILE((IF($D:$D=$I6,$B:$B)),0.99)</f>
-        <v>2498.2159999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>85</v>
-      </c>
-      <c r="B7">
-        <v>6002.22</v>
-      </c>
-      <c r="C7">
-        <v>6000</v>
-      </c>
-      <c r="D7">
-        <v>512</v>
-      </c>
-      <c r="E7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
-        <v>98</v>
-      </c>
-      <c r="B8">
-        <v>6002.64</v>
-      </c>
-      <c r="C8">
-        <v>6000</v>
-      </c>
-      <c r="D8">
-        <v>512</v>
-      </c>
-      <c r="E8">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
-        <v>107</v>
-      </c>
-      <c r="B9">
-        <v>6002.66</v>
-      </c>
-      <c r="C9">
-        <v>6000</v>
-      </c>
-      <c r="D9">
-        <v>512</v>
-      </c>
-      <c r="E9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>110</v>
-      </c>
-      <c r="B10">
-        <v>6002.72</v>
-      </c>
-      <c r="C10">
-        <v>6000</v>
-      </c>
-      <c r="D10">
-        <v>512</v>
-      </c>
-      <c r="E10">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
-        <v>106</v>
-      </c>
-      <c r="B11">
-        <v>6002.88</v>
-      </c>
-      <c r="C11">
-        <v>6000</v>
-      </c>
-      <c r="D11">
-        <v>512</v>
-      </c>
-      <c r="E11">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12">
-        <v>109</v>
-      </c>
-      <c r="B12">
-        <v>6002.89</v>
-      </c>
-      <c r="C12">
-        <v>6000</v>
-      </c>
-      <c r="D12">
-        <v>512</v>
-      </c>
-      <c r="E12">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13">
-        <v>87</v>
-      </c>
-      <c r="B13">
-        <v>6003</v>
-      </c>
-      <c r="C13">
-        <v>6000</v>
-      </c>
-      <c r="D13">
-        <v>512</v>
-      </c>
-      <c r="E13">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14">
-        <v>105</v>
-      </c>
-      <c r="B14">
-        <v>6003.22</v>
-      </c>
-      <c r="C14">
-        <v>6000</v>
-      </c>
-      <c r="D14">
-        <v>512</v>
-      </c>
-      <c r="E14">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15">
-        <v>93</v>
-      </c>
-      <c r="B15">
-        <v>6003.33</v>
-      </c>
-      <c r="C15">
-        <v>6000</v>
-      </c>
-      <c r="D15">
-        <v>512</v>
-      </c>
-      <c r="E15">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16">
-        <v>99</v>
-      </c>
-      <c r="B16">
-        <v>6003.38</v>
-      </c>
-      <c r="C16">
-        <v>6000</v>
-      </c>
-      <c r="D16">
-        <v>512</v>
-      </c>
-      <c r="E16">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>88</v>
-      </c>
-      <c r="B17">
-        <v>6003.41</v>
-      </c>
-      <c r="C17">
-        <v>6000</v>
-      </c>
-      <c r="D17">
-        <v>512</v>
-      </c>
-      <c r="E17">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>89</v>
-      </c>
-      <c r="B18">
-        <v>6003.58</v>
-      </c>
-      <c r="C18">
-        <v>6000</v>
-      </c>
-      <c r="D18">
-        <v>512</v>
-      </c>
-      <c r="E18">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>90</v>
-      </c>
-      <c r="B19">
-        <v>6003.77</v>
-      </c>
-      <c r="C19">
-        <v>6000</v>
-      </c>
-      <c r="D19">
-        <v>512</v>
-      </c>
-      <c r="E19">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>83</v>
-      </c>
-      <c r="B20">
-        <v>6003.91</v>
-      </c>
-      <c r="C20">
-        <v>6000</v>
-      </c>
-      <c r="D20">
-        <v>512</v>
-      </c>
-      <c r="E20">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>112</v>
-      </c>
-      <c r="B21">
-        <v>6004.22</v>
-      </c>
-      <c r="C21">
-        <v>6000</v>
-      </c>
-      <c r="D21">
-        <v>512</v>
-      </c>
-      <c r="E21">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>113</v>
-      </c>
-      <c r="B22">
-        <v>6004.3</v>
-      </c>
-      <c r="C22">
-        <v>6000</v>
-      </c>
-      <c r="D22">
-        <v>512</v>
-      </c>
-      <c r="E22">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>103</v>
-      </c>
-      <c r="B23">
-        <v>6004.36</v>
-      </c>
-      <c r="C23">
-        <v>6000</v>
-      </c>
-      <c r="D23">
-        <v>512</v>
-      </c>
-      <c r="E23">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>111</v>
-      </c>
-      <c r="B24">
-        <v>6004.48</v>
-      </c>
-      <c r="C24">
-        <v>6000</v>
-      </c>
-      <c r="D24">
-        <v>512</v>
-      </c>
-      <c r="E24">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>94</v>
-      </c>
-      <c r="B25">
-        <v>6004.71</v>
-      </c>
-      <c r="C25">
-        <v>6000</v>
-      </c>
-      <c r="D25">
-        <v>512</v>
-      </c>
-      <c r="E25">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>115</v>
-      </c>
-      <c r="B26">
-        <v>6004.83</v>
-      </c>
-      <c r="C26">
-        <v>6000</v>
-      </c>
-      <c r="D26">
-        <v>512</v>
-      </c>
-      <c r="E26">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>116</v>
-      </c>
-      <c r="B27">
-        <v>6004.86</v>
-      </c>
-      <c r="C27">
-        <v>6000</v>
-      </c>
-      <c r="D27">
-        <v>512</v>
-      </c>
-      <c r="E27">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>95</v>
-      </c>
-      <c r="B28">
-        <v>6004.99</v>
-      </c>
-      <c r="C28">
-        <v>6000</v>
-      </c>
-      <c r="D28">
-        <v>512</v>
-      </c>
-      <c r="E28">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>119</v>
-      </c>
-      <c r="B29">
-        <v>6005.03</v>
-      </c>
-      <c r="C29">
-        <v>6000</v>
-      </c>
-      <c r="D29">
-        <v>512</v>
-      </c>
-      <c r="E29">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>104</v>
-      </c>
-      <c r="B30">
-        <v>6005.1</v>
-      </c>
-      <c r="C30">
-        <v>6000</v>
-      </c>
-      <c r="D30">
-        <v>512</v>
-      </c>
-      <c r="E30">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>118</v>
-      </c>
-      <c r="B31">
-        <v>6005.19</v>
-      </c>
-      <c r="C31">
-        <v>6000</v>
-      </c>
-      <c r="D31">
-        <v>512</v>
-      </c>
-      <c r="E31">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>123</v>
-      </c>
-      <c r="B32">
-        <v>6005.19</v>
-      </c>
-      <c r="C32">
-        <v>6000</v>
-      </c>
-      <c r="D32">
-        <v>512</v>
-      </c>
-      <c r="E32">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>102</v>
-      </c>
-      <c r="B33">
-        <v>6005.59</v>
-      </c>
-      <c r="C33">
-        <v>6000</v>
-      </c>
-      <c r="D33">
-        <v>512</v>
-      </c>
-      <c r="E33">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>97</v>
-      </c>
-      <c r="B34">
-        <v>6005.84</v>
-      </c>
-      <c r="C34">
-        <v>6000</v>
-      </c>
-      <c r="D34">
-        <v>512</v>
-      </c>
-      <c r="E34">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>122</v>
-      </c>
-      <c r="B35">
-        <v>6006.13</v>
-      </c>
-      <c r="C35">
-        <v>6000</v>
-      </c>
-      <c r="D35">
-        <v>512</v>
-      </c>
-      <c r="E35">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>100</v>
-      </c>
-      <c r="B36">
-        <v>6006.14</v>
-      </c>
-      <c r="C36">
-        <v>6000</v>
-      </c>
-      <c r="D36">
-        <v>512</v>
-      </c>
-      <c r="E36">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>121</v>
-      </c>
-      <c r="B37">
-        <v>6006.15</v>
-      </c>
-      <c r="C37">
-        <v>6000</v>
-      </c>
-      <c r="D37">
-        <v>512</v>
-      </c>
-      <c r="E37">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>120</v>
-      </c>
-      <c r="B38">
-        <v>6006.16</v>
-      </c>
-      <c r="C38">
-        <v>6000</v>
-      </c>
-      <c r="D38">
-        <v>512</v>
-      </c>
-      <c r="E38">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>114</v>
-      </c>
-      <c r="B39">
-        <v>6006.17</v>
-      </c>
-      <c r="C39">
-        <v>6000</v>
-      </c>
-      <c r="D39">
-        <v>512</v>
-      </c>
-      <c r="E39">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>108</v>
-      </c>
-      <c r="B40">
-        <v>6006.18</v>
-      </c>
-      <c r="C40">
-        <v>6000</v>
-      </c>
-      <c r="D40">
-        <v>512</v>
-      </c>
-      <c r="E40">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>86</v>
-      </c>
-      <c r="B41">
-        <v>6006.21</v>
-      </c>
-      <c r="C41">
-        <v>6000</v>
-      </c>
-      <c r="D41">
-        <v>512</v>
-      </c>
-      <c r="E41">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>117</v>
-      </c>
-      <c r="B42">
-        <v>6006.24</v>
-      </c>
-      <c r="C42">
-        <v>6000</v>
-      </c>
-      <c r="D42">
-        <v>512</v>
-      </c>
-      <c r="E42">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1">
+      <c r="J15">
+        <v>3904.2923030303027</v>
+      </c>
+      <c r="K15">
+        <v>3976.8119999999999</v>
+      </c>
+      <c r="L15">
+        <v>2867.6410000000001</v>
+      </c>
+      <c r="M15">
+        <v>4792.701</v>
+      </c>
+      <c r="N15">
+        <v>317.43607124721416</v>
+      </c>
+      <c r="O15">
+        <v>4792.701</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11">
+      <c r="J17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11">
+      <c r="I18" s="6">
+        <v>1024</v>
+      </c>
+      <c r="J18" s="9">
+        <f>(J14-J4)/J14</f>
+        <v>0.29378763668655672</v>
+      </c>
+      <c r="K18" s="9">
+        <f>(K14-K4)/K14</f>
+        <v>0.29258516873840174</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11">
+      <c r="I19" s="6">
+        <v>2048</v>
+      </c>
+      <c r="J19" s="9">
+        <f>(J15-J5)/J15</f>
+        <v>0.44658625313963979</v>
+      </c>
+      <c r="K19" s="9">
+        <f>(K15-K5)/K15</f>
+        <v>0.45885297067097969</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="23" spans="9:11">
+      <c r="J23">
+        <f>POWER(J18,2)</f>
+        <v>8.6311175469872242E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" s="5" customFormat="1">
       <c r="A43" s="5">
         <v>26</v>
       </c>
@@ -4926,8 +4220,15 @@
       <c r="E43" s="5">
         <v>116</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>40</v>
       </c>
@@ -4944,7 +4245,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>38</v>
       </c>
@@ -4961,7 +4262,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>22</v>
       </c>
@@ -4978,7 +4279,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>3</v>
       </c>
@@ -4995,7 +4296,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>32</v>
       </c>
@@ -5284,7 +4585,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>18</v>
       </c>
@@ -5301,7 +4602,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>5</v>
       </c>
@@ -5318,7 +4619,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>8</v>
       </c>
@@ -5335,7 +4636,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>36</v>
       </c>
@@ -5352,7 +4653,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5369,7 +4670,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>13</v>
       </c>
@@ -5386,7 +4687,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>7</v>
       </c>
@@ -5403,7 +4704,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>9</v>
       </c>
@@ -5420,7 +4721,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>24</v>
       </c>
@@ -5436,8 +4737,15 @@
       <c r="E73">
         <v>140</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" s="5" customFormat="1">
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+    </row>
+    <row r="74" spans="1:15" s="5" customFormat="1">
       <c r="A74" s="5">
         <v>42</v>
       </c>
@@ -5453,8 +4761,15 @@
       <c r="E74" s="5">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>51</v>
       </c>
@@ -5471,7 +4786,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>66</v>
       </c>
@@ -5488,7 +4803,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>50</v>
       </c>
@@ -5505,7 +4820,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>54</v>
       </c>
@@ -5522,7 +4837,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>56</v>
       </c>
@@ -5539,7 +4854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>45</v>
       </c>
@@ -5965,9 +5280,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E104">
-    <sortCondition ref="D2:D104"/>
-    <sortCondition ref="B2:B104"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E103">
+    <sortCondition ref="D2:D103"/>
+    <sortCondition ref="B2:B103"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
